--- a/ControllerFinanciero/ControllerFinanciero_v1.0.xlsx
+++ b/ControllerFinanciero/ControllerFinanciero_v1.0.xlsx
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="C7" s="30">
-        <f>ESF!B14/ESF!B37</f>
+        <f>IFERROR(ESF!B14/ESF!B37,0)</f>
         <v/>
       </c>
       <c r="D7" s="30">
-        <f>ESF!D14/ESF!D37</f>
-        <v/>
-      </c>
-      <c r="E7">
+        <f>IFERROR(ESF!D14/ESF!D37,0)</f>
+        <v/>
+      </c>
+      <c r="E7" s="30">
         <f>D7-C7</f>
         <v/>
       </c>
       <c r="F7" s="22">
-        <f>(D7-C7)/C7</f>
+        <f>IFERROR((D7-C7)/C7,0)</f>
         <v/>
       </c>
       <c r="G7" s="30">
-        <f>ESF!G14/ESF!G37</f>
-        <v/>
-      </c>
-      <c r="H7">
+        <f>IFERROR(ESF!G14/ESF!G37,0)</f>
+        <v/>
+      </c>
+      <c r="H7" s="30">
         <f>G7-D7</f>
         <v/>
       </c>
       <c r="I7" s="22">
-        <f>(G7-D7)/D7</f>
+        <f>IFERROR((G7-D7)/D7,0)</f>
         <v/>
       </c>
       <c r="J7">
@@ -5376,6 +5376,38 @@
           <t>(Activo Corriente - Inventarios) / Pasivo Corriente</t>
         </is>
       </c>
+      <c r="C8" s="30">
+        <f>IFERROR((ESF!B14-ESF!B11)/ESF!B37,0)</f>
+        <v/>
+      </c>
+      <c r="D8" s="30">
+        <f>IFERROR((ESF!D14-ESF!D11)/ESF!D37,0)</f>
+        <v/>
+      </c>
+      <c r="E8" s="30">
+        <f>D8-C8</f>
+        <v/>
+      </c>
+      <c r="F8" s="22">
+        <f>IFERROR((D8-C8)/C8,0)</f>
+        <v/>
+      </c>
+      <c r="G8" s="30">
+        <f>IFERROR((ESF!G14-ESF!G11)/ESF!G37,0)</f>
+        <v/>
+      </c>
+      <c r="H8" s="30">
+        <f>G8-D8</f>
+        <v/>
+      </c>
+      <c r="I8" s="22">
+        <f>IFERROR((G8-D8)/D8,0)</f>
+        <v/>
+      </c>
+      <c r="J8">
+        <f>IF(G8&gt;=1,"🟢 Óptimo",IF(G8&gt;=0.8,"🟡 Aceptable","🔴 Crítico"))</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -5388,6 +5420,38 @@
           <t>Activo Corriente - Pasivo Corriente</t>
         </is>
       </c>
+      <c r="C9" s="30">
+        <f>IFERROR(ESF!B14-ESF!B37,0)</f>
+        <v/>
+      </c>
+      <c r="D9" s="30">
+        <f>IFERROR(ESF!D14-ESF!D37,0)</f>
+        <v/>
+      </c>
+      <c r="E9" s="30">
+        <f>D9-C9</f>
+        <v/>
+      </c>
+      <c r="F9" s="22">
+        <f>IFERROR((D9-C9)/C9,0)</f>
+        <v/>
+      </c>
+      <c r="G9" s="30">
+        <f>IFERROR(ESF!G14-ESF!G37,0)</f>
+        <v/>
+      </c>
+      <c r="H9" s="30">
+        <f>G9-D9</f>
+        <v/>
+      </c>
+      <c r="I9" s="22">
+        <f>IFERROR((G9-D9)/D9,0)</f>
+        <v/>
+      </c>
+      <c r="J9">
+        <f>IF(G9&gt;0,"🟢 Positivo","🔴 Negativo")</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -5400,6 +5464,34 @@
           <t>CxC Clientes + Inventarios - Proveedores</t>
         </is>
       </c>
+      <c r="C10" s="30">
+        <f>IFERROR(ESF!B9+ESF!B11-ESF!B30,0)</f>
+        <v/>
+      </c>
+      <c r="D10" s="30">
+        <f>IFERROR(ESF!D9+ESF!D11-ESF!D30,0)</f>
+        <v/>
+      </c>
+      <c r="E10" s="30">
+        <f>D10-C10</f>
+        <v/>
+      </c>
+      <c r="F10" s="22">
+        <f>IFERROR((D10-C10)/C10,0)</f>
+        <v/>
+      </c>
+      <c r="G10" s="30">
+        <f>IFERROR(ESF!G9+ESF!G11-ESF!G30,0)</f>
+        <v/>
+      </c>
+      <c r="H10" s="30">
+        <f>G10-D10</f>
+        <v/>
+      </c>
+      <c r="I10" s="22">
+        <f>IFERROR((G10-D10)/D10,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -5412,6 +5504,34 @@
           <t>KT / Ventas</t>
         </is>
       </c>
+      <c r="C11" s="30">
+        <f>IFERROR(C9/EERR!B5,0)</f>
+        <v/>
+      </c>
+      <c r="D11" s="30">
+        <f>IFERROR(D9/EERR!D5,0)</f>
+        <v/>
+      </c>
+      <c r="E11" s="30">
+        <f>D11-C11</f>
+        <v/>
+      </c>
+      <c r="F11" s="22">
+        <f>IFERROR((D11-C11)/C11,0)</f>
+        <v/>
+      </c>
+      <c r="G11" s="30">
+        <f>IFERROR(G9/EERR!G5,0)</f>
+        <v/>
+      </c>
+      <c r="H11" s="30">
+        <f>G11-D11</f>
+        <v/>
+      </c>
+      <c r="I11" s="22">
+        <f>IFERROR((G11-D11)/D11,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -5424,6 +5544,34 @@
           <t>KTNO / Ventas</t>
         </is>
       </c>
+      <c r="C12" s="30">
+        <f>IFERROR(C10/EERR!B5,0)</f>
+        <v/>
+      </c>
+      <c r="D12" s="30">
+        <f>IFERROR(D10/EERR!D5,0)</f>
+        <v/>
+      </c>
+      <c r="E12" s="30">
+        <f>D12-C12</f>
+        <v/>
+      </c>
+      <c r="F12" s="22">
+        <f>IFERROR((D12-C12)/C12,0)</f>
+        <v/>
+      </c>
+      <c r="G12" s="30">
+        <f>IFERROR(G10/EERR!G5,0)</f>
+        <v/>
+      </c>
+      <c r="H12" s="30">
+        <f>G12-D12</f>
+        <v/>
+      </c>
+      <c r="I12" s="22">
+        <f>IFERROR((G12-D12)/D12,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -5436,7 +5584,40 @@
           <t>Activo Total / Pasivo Total</t>
         </is>
       </c>
-    </row>
+      <c r="C13" s="30">
+        <f>IFERROR(ESF!B23/ESF!B45,0)</f>
+        <v/>
+      </c>
+      <c r="D13" s="30">
+        <f>IFERROR(ESF!D23/ESF!D45,0)</f>
+        <v/>
+      </c>
+      <c r="E13" s="30">
+        <f>D13-C13</f>
+        <v/>
+      </c>
+      <c r="F13" s="22">
+        <f>IFERROR((D13-C13)/C13,0)</f>
+        <v/>
+      </c>
+      <c r="G13" s="30">
+        <f>IFERROR(ESF!G23/ESF!G45,0)</f>
+        <v/>
+      </c>
+      <c r="H13" s="30">
+        <f>G13-D13</f>
+        <v/>
+      </c>
+      <c r="I13" s="22">
+        <f>IFERROR((G13-D13)/D13,0)</f>
+        <v/>
+      </c>
+      <c r="J13">
+        <f>IF(G13&gt;=2,"🟢 Óptimo",IF(G13&gt;=1,"🟡 Aceptable","🔴 Crítico"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14"/>
     <row r="15">
       <c r="A15" s="13" t="inlineStr">
         <is>
@@ -5455,6 +5636,38 @@
           <t>Utilidad Bruta / Ventas</t>
         </is>
       </c>
+      <c r="C16" s="22">
+        <f>IFERROR(EERR!B7/EERR!B5,0)</f>
+        <v/>
+      </c>
+      <c r="D16" s="22">
+        <f>IFERROR(EERR!D7/EERR!D5,0)</f>
+        <v/>
+      </c>
+      <c r="E16" s="30">
+        <f>D16-C16</f>
+        <v/>
+      </c>
+      <c r="F16" s="22">
+        <f>IFERROR((D16-C16)/C16,0)</f>
+        <v/>
+      </c>
+      <c r="G16" s="22">
+        <f>IFERROR(EERR!G7/EERR!G5,0)</f>
+        <v/>
+      </c>
+      <c r="H16" s="30">
+        <f>G16-D16</f>
+        <v/>
+      </c>
+      <c r="I16" s="22">
+        <f>IFERROR((G16-D16)/D16,0)</f>
+        <v/>
+      </c>
+      <c r="J16">
+        <f>IF(G16&gt;=0.3,"🟢 Óptimo",IF(G16&gt;=0.2,"🟡 Aceptable","🔴 Bajo"))</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -5467,6 +5680,38 @@
           <t>EBITDA / Ventas</t>
         </is>
       </c>
+      <c r="C17" s="22">
+        <f>IFERROR(EERR!B13/EERR!B5,0)</f>
+        <v/>
+      </c>
+      <c r="D17" s="22">
+        <f>IFERROR(EERR!D13/EERR!D5,0)</f>
+        <v/>
+      </c>
+      <c r="E17" s="30">
+        <f>D17-C17</f>
+        <v/>
+      </c>
+      <c r="F17" s="22">
+        <f>IFERROR((D17-C17)/C17,0)</f>
+        <v/>
+      </c>
+      <c r="G17" s="22">
+        <f>IFERROR(EERR!G13/EERR!G5,0)</f>
+        <v/>
+      </c>
+      <c r="H17" s="30">
+        <f>G17-D17</f>
+        <v/>
+      </c>
+      <c r="I17" s="22">
+        <f>IFERROR((G17-D17)/D17,0)</f>
+        <v/>
+      </c>
+      <c r="J17">
+        <f>IF(G17&gt;=0.15,"🟢 Óptimo",IF(G17&gt;=0.1,"🟡 Aceptable","🔴 Bajo"))</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -5479,6 +5724,38 @@
           <t>Utilidad Operativa / Ventas</t>
         </is>
       </c>
+      <c r="C18" s="22">
+        <f>IFERROR(EERR!B14/EERR!B5,0)</f>
+        <v/>
+      </c>
+      <c r="D18" s="22">
+        <f>IFERROR(EERR!D14/EERR!D5,0)</f>
+        <v/>
+      </c>
+      <c r="E18" s="30">
+        <f>D18-C18</f>
+        <v/>
+      </c>
+      <c r="F18" s="22">
+        <f>IFERROR((D18-C18)/C18,0)</f>
+        <v/>
+      </c>
+      <c r="G18" s="22">
+        <f>IFERROR(EERR!G14/EERR!G5,0)</f>
+        <v/>
+      </c>
+      <c r="H18" s="30">
+        <f>G18-D18</f>
+        <v/>
+      </c>
+      <c r="I18" s="22">
+        <f>IFERROR((G18-D18)/D18,0)</f>
+        <v/>
+      </c>
+      <c r="J18">
+        <f>IF(G18&gt;=0.1,"🟢 Óptimo",IF(G18&gt;=0.05,"🟡 Aceptable","🔴 Bajo"))</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -5491,6 +5768,38 @@
           <t>Utilidad Neta / Ventas</t>
         </is>
       </c>
+      <c r="C19" s="22">
+        <f>IFERROR(EERR!B22/EERR!B5,0)</f>
+        <v/>
+      </c>
+      <c r="D19" s="22">
+        <f>IFERROR(EERR!D22/EERR!D5,0)</f>
+        <v/>
+      </c>
+      <c r="E19" s="30">
+        <f>D19-C19</f>
+        <v/>
+      </c>
+      <c r="F19" s="22">
+        <f>IFERROR((D19-C19)/C19,0)</f>
+        <v/>
+      </c>
+      <c r="G19" s="22">
+        <f>IFERROR(EERR!G22/EERR!G5,0)</f>
+        <v/>
+      </c>
+      <c r="H19" s="30">
+        <f>G19-D19</f>
+        <v/>
+      </c>
+      <c r="I19" s="22">
+        <f>IFERROR((G19-D19)/D19,0)</f>
+        <v/>
+      </c>
+      <c r="J19">
+        <f>IF(G19&gt;=0.1,"🟢 Óptimo",IF(G19&gt;=0.05,"🟡 Aceptable","🔴 Bajo"))</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -5503,6 +5812,38 @@
           <t>Utilidad Neta / Activos Totales</t>
         </is>
       </c>
+      <c r="C20" s="22">
+        <f>IFERROR(EERR!B22/ESF!B23,0)</f>
+        <v/>
+      </c>
+      <c r="D20" s="22">
+        <f>IFERROR(EERR!D22/ESF!D23,0)</f>
+        <v/>
+      </c>
+      <c r="E20" s="30">
+        <f>D20-C20</f>
+        <v/>
+      </c>
+      <c r="F20" s="22">
+        <f>IFERROR((D20-C20)/C20,0)</f>
+        <v/>
+      </c>
+      <c r="G20" s="22">
+        <f>IFERROR(EERR!G22/ESF!G23,0)</f>
+        <v/>
+      </c>
+      <c r="H20" s="30">
+        <f>G20-D20</f>
+        <v/>
+      </c>
+      <c r="I20" s="22">
+        <f>IFERROR((G20-D20)/D20,0)</f>
+        <v/>
+      </c>
+      <c r="J20">
+        <f>IF(G20&gt;=0.1,"🟢 Óptimo",IF(G20&gt;=0.05,"🟡 Aceptable","🔴 Bajo"))</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -5515,6 +5856,38 @@
           <t>Utilidad Neta / Patrimonio</t>
         </is>
       </c>
+      <c r="C21" s="22">
+        <f>IFERROR(EERR!B22/ESF!B54,0)</f>
+        <v/>
+      </c>
+      <c r="D21" s="22">
+        <f>IFERROR(EERR!D22/ESF!D54,0)</f>
+        <v/>
+      </c>
+      <c r="E21" s="30">
+        <f>D21-C21</f>
+        <v/>
+      </c>
+      <c r="F21" s="22">
+        <f>IFERROR((D21-C21)/C21,0)</f>
+        <v/>
+      </c>
+      <c r="G21" s="22">
+        <f>IFERROR(EERR!G22/ESF!G54,0)</f>
+        <v/>
+      </c>
+      <c r="H21" s="30">
+        <f>G21-D21</f>
+        <v/>
+      </c>
+      <c r="I21" s="22">
+        <f>IFERROR((G21-D21)/D21,0)</f>
+        <v/>
+      </c>
+      <c r="J21">
+        <f>IF(G21&gt;=0.15,"🟢 Óptimo",IF(G21&gt;=0.1,"🟡 Aceptable","🔴 Bajo"))</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -5527,7 +5900,36 @@
           <t>Impuestos / UAI</t>
         </is>
       </c>
-    </row>
+      <c r="C22" s="22">
+        <f>IFERROR(EERR!B21/EERR!B19,0)</f>
+        <v/>
+      </c>
+      <c r="D22" s="22">
+        <f>IFERROR(EERR!D21/EERR!D19,0)</f>
+        <v/>
+      </c>
+      <c r="E22" s="30">
+        <f>D22-C22</f>
+        <v/>
+      </c>
+      <c r="F22" s="22">
+        <f>IFERROR((D22-C22)/C22,0)</f>
+        <v/>
+      </c>
+      <c r="G22" s="22">
+        <f>IFERROR(EERR!G21/EERR!G19,0)</f>
+        <v/>
+      </c>
+      <c r="H22" s="30">
+        <f>G22-D22</f>
+        <v/>
+      </c>
+      <c r="I22" s="22">
+        <f>IFERROR((G22-D22)/D22,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23"/>
     <row r="24">
       <c r="A24" s="13" t="inlineStr">
         <is>
@@ -5546,6 +5948,38 @@
           <t>Pasivo Total / Activo Total</t>
         </is>
       </c>
+      <c r="C25" s="22">
+        <f>IFERROR(ESF!B45/ESF!B23,0)</f>
+        <v/>
+      </c>
+      <c r="D25" s="22">
+        <f>IFERROR(ESF!D45/ESF!D23,0)</f>
+        <v/>
+      </c>
+      <c r="E25" s="30">
+        <f>D25-C25</f>
+        <v/>
+      </c>
+      <c r="F25" s="22">
+        <f>IFERROR((D25-C25)/C25,0)</f>
+        <v/>
+      </c>
+      <c r="G25" s="22">
+        <f>IFERROR(ESF!G45/ESF!G23,0)</f>
+        <v/>
+      </c>
+      <c r="H25" s="30">
+        <f>G25-D25</f>
+        <v/>
+      </c>
+      <c r="I25" s="22">
+        <f>IFERROR((G25-D25)/D25,0)</f>
+        <v/>
+      </c>
+      <c r="J25">
+        <f>IF(G25&lt;=0.5,"🟢 Óptimo",IF(G25&lt;=0.7,"🟡 Moderado","🔴 Alto"))</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -5558,6 +5992,34 @@
           <t>Pasivo Corriente / Pasivo Total</t>
         </is>
       </c>
+      <c r="C26" s="22">
+        <f>IFERROR(ESF!B37/ESF!B45,0)</f>
+        <v/>
+      </c>
+      <c r="D26" s="22">
+        <f>IFERROR(ESF!D37/ESF!D45,0)</f>
+        <v/>
+      </c>
+      <c r="E26" s="30">
+        <f>D26-C26</f>
+        <v/>
+      </c>
+      <c r="F26" s="22">
+        <f>IFERROR((D26-C26)/C26,0)</f>
+        <v/>
+      </c>
+      <c r="G26" s="22">
+        <f>IFERROR(ESF!G37/ESF!G45,0)</f>
+        <v/>
+      </c>
+      <c r="H26" s="30">
+        <f>G26-D26</f>
+        <v/>
+      </c>
+      <c r="I26" s="22">
+        <f>IFERROR((G26-D26)/D26,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -5570,6 +6032,34 @@
           <t>(Oblig. Financ. CP + LP) / Activos</t>
         </is>
       </c>
+      <c r="C27" s="22">
+        <f>IFERROR((ESF!B29+ESF!B40)/ESF!B23,0)</f>
+        <v/>
+      </c>
+      <c r="D27" s="22">
+        <f>IFERROR((ESF!D29+ESF!D40)/ESF!D23,0)</f>
+        <v/>
+      </c>
+      <c r="E27" s="30">
+        <f>D27-C27</f>
+        <v/>
+      </c>
+      <c r="F27" s="22">
+        <f>IFERROR((D27-C27)/C27,0)</f>
+        <v/>
+      </c>
+      <c r="G27" s="22">
+        <f>IFERROR((ESF!G29+ESF!G40)/ESF!G23,0)</f>
+        <v/>
+      </c>
+      <c r="H27" s="30">
+        <f>G27-D27</f>
+        <v/>
+      </c>
+      <c r="I27" s="22">
+        <f>IFERROR((G27-D27)/D27,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -5582,6 +6072,34 @@
           <t>Pasivo Total / Patrimonio</t>
         </is>
       </c>
+      <c r="C28" s="30">
+        <f>IFERROR(ESF!B45/ESF!B54,0)</f>
+        <v/>
+      </c>
+      <c r="D28" s="30">
+        <f>IFERROR(ESF!D45/ESF!D54,0)</f>
+        <v/>
+      </c>
+      <c r="E28" s="30">
+        <f>D28-C28</f>
+        <v/>
+      </c>
+      <c r="F28" s="22">
+        <f>IFERROR((D28-C28)/C28,0)</f>
+        <v/>
+      </c>
+      <c r="G28" s="30">
+        <f>IFERROR(ESF!G45/ESF!G54,0)</f>
+        <v/>
+      </c>
+      <c r="H28" s="30">
+        <f>G28-D28</f>
+        <v/>
+      </c>
+      <c r="I28" s="22">
+        <f>IFERROR((G28-D28)/D28,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -5594,7 +6112,40 @@
           <t>EBIT / Gastos Financieros</t>
         </is>
       </c>
-    </row>
+      <c r="C29" s="30">
+        <f>IFERROR(EERR!B14/EERR!B18,0)</f>
+        <v/>
+      </c>
+      <c r="D29" s="30">
+        <f>IFERROR(EERR!D14/EERR!D18,0)</f>
+        <v/>
+      </c>
+      <c r="E29" s="30">
+        <f>D29-C29</f>
+        <v/>
+      </c>
+      <c r="F29" s="22">
+        <f>IFERROR((D29-C29)/C29,0)</f>
+        <v/>
+      </c>
+      <c r="G29" s="30">
+        <f>IFERROR(EERR!G14/EERR!G18,0)</f>
+        <v/>
+      </c>
+      <c r="H29" s="30">
+        <f>G29-D29</f>
+        <v/>
+      </c>
+      <c r="I29" s="22">
+        <f>IFERROR((G29-D29)/D29,0)</f>
+        <v/>
+      </c>
+      <c r="J29">
+        <f>IF(G29&gt;=5,"🟢 Óptimo",IF(G29&gt;=2,"🟡 Aceptable","🔴 Crítico"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30"/>
     <row r="31">
       <c r="A31" s="13" t="inlineStr">
         <is>
@@ -5613,6 +6164,34 @@
           <t>Costo de Ventas / Inventarios</t>
         </is>
       </c>
+      <c r="C32" s="30">
+        <f>IFERROR(EERR!B6/ESF!B11,0)</f>
+        <v/>
+      </c>
+      <c r="D32" s="30">
+        <f>IFERROR(EERR!D6/ESF!D11,0)</f>
+        <v/>
+      </c>
+      <c r="E32" s="30">
+        <f>D32-C32</f>
+        <v/>
+      </c>
+      <c r="F32" s="22">
+        <f>IFERROR((D32-C32)/C32,0)</f>
+        <v/>
+      </c>
+      <c r="G32" s="30">
+        <f>IFERROR(EERR!G6/ESF!G11,0)</f>
+        <v/>
+      </c>
+      <c r="H32" s="30">
+        <f>G32-D32</f>
+        <v/>
+      </c>
+      <c r="I32" s="22">
+        <f>IFERROR((G32-D32)/D32,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -5625,6 +6204,34 @@
           <t>365 / Rotación de Inventarios</t>
         </is>
       </c>
+      <c r="C33" s="23">
+        <f>IFERROR(365/C32,0)</f>
+        <v/>
+      </c>
+      <c r="D33" s="23">
+        <f>IFERROR(365/D32,0)</f>
+        <v/>
+      </c>
+      <c r="E33" s="30">
+        <f>D33-C33</f>
+        <v/>
+      </c>
+      <c r="F33" s="22">
+        <f>IFERROR((D33-C33)/C33,0)</f>
+        <v/>
+      </c>
+      <c r="G33" s="23">
+        <f>IFERROR(365/G32,0)</f>
+        <v/>
+      </c>
+      <c r="H33" s="30">
+        <f>G33-D33</f>
+        <v/>
+      </c>
+      <c r="I33" s="22">
+        <f>IFERROR((G33-D33)/D33,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -5637,6 +6244,34 @@
           <t>Ventas / CxC Clientes</t>
         </is>
       </c>
+      <c r="C34" s="30">
+        <f>IFERROR(EERR!B5/ESF!B9,0)</f>
+        <v/>
+      </c>
+      <c r="D34" s="30">
+        <f>IFERROR(EERR!D5/ESF!D9,0)</f>
+        <v/>
+      </c>
+      <c r="E34" s="30">
+        <f>D34-C34</f>
+        <v/>
+      </c>
+      <c r="F34" s="22">
+        <f>IFERROR((D34-C34)/C34,0)</f>
+        <v/>
+      </c>
+      <c r="G34" s="30">
+        <f>IFERROR(EERR!G5/ESF!G9,0)</f>
+        <v/>
+      </c>
+      <c r="H34" s="30">
+        <f>G34-D34</f>
+        <v/>
+      </c>
+      <c r="I34" s="22">
+        <f>IFERROR((G34-D34)/D34,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -5649,6 +6284,34 @@
           <t>365 / Rotación de Cartera</t>
         </is>
       </c>
+      <c r="C35" s="23">
+        <f>IFERROR(365/C34,0)</f>
+        <v/>
+      </c>
+      <c r="D35" s="23">
+        <f>IFERROR(365/D34,0)</f>
+        <v/>
+      </c>
+      <c r="E35" s="30">
+        <f>D35-C35</f>
+        <v/>
+      </c>
+      <c r="F35" s="22">
+        <f>IFERROR((D35-C35)/C35,0)</f>
+        <v/>
+      </c>
+      <c r="G35" s="23">
+        <f>IFERROR(365/G34,0)</f>
+        <v/>
+      </c>
+      <c r="H35" s="30">
+        <f>G35-D35</f>
+        <v/>
+      </c>
+      <c r="I35" s="22">
+        <f>IFERROR((G35-D35)/D35,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -5661,6 +6324,34 @@
           <t>Costo de Ventas / Proveedores</t>
         </is>
       </c>
+      <c r="C36" s="30">
+        <f>IFERROR(EERR!B6/ESF!B30,0)</f>
+        <v/>
+      </c>
+      <c r="D36" s="30">
+        <f>IFERROR(EERR!D6/ESF!D30,0)</f>
+        <v/>
+      </c>
+      <c r="E36" s="30">
+        <f>D36-C36</f>
+        <v/>
+      </c>
+      <c r="F36" s="22">
+        <f>IFERROR((D36-C36)/C36,0)</f>
+        <v/>
+      </c>
+      <c r="G36" s="30">
+        <f>IFERROR(EERR!G6/ESF!G30,0)</f>
+        <v/>
+      </c>
+      <c r="H36" s="30">
+        <f>G36-D36</f>
+        <v/>
+      </c>
+      <c r="I36" s="22">
+        <f>IFERROR((G36-D36)/D36,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -5673,6 +6364,34 @@
           <t>365 / Rotación de Proveedores</t>
         </is>
       </c>
+      <c r="C37" s="23">
+        <f>IFERROR(365/C36,0)</f>
+        <v/>
+      </c>
+      <c r="D37" s="23">
+        <f>IFERROR(365/D36,0)</f>
+        <v/>
+      </c>
+      <c r="E37" s="30">
+        <f>D37-C37</f>
+        <v/>
+      </c>
+      <c r="F37" s="22">
+        <f>IFERROR((D37-C37)/C37,0)</f>
+        <v/>
+      </c>
+      <c r="G37" s="23">
+        <f>IFERROR(365/G36,0)</f>
+        <v/>
+      </c>
+      <c r="H37" s="30">
+        <f>G37-D37</f>
+        <v/>
+      </c>
+      <c r="I37" s="22">
+        <f>IFERROR((G37-D37)/D37,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -5685,6 +6404,34 @@
           <t>Días Inventario + Días Cartera</t>
         </is>
       </c>
+      <c r="C38" s="23">
+        <f>IFERROR(C33+C35,0)</f>
+        <v/>
+      </c>
+      <c r="D38" s="23">
+        <f>IFERROR(D33+D35,0)</f>
+        <v/>
+      </c>
+      <c r="E38" s="30">
+        <f>D38-C38</f>
+        <v/>
+      </c>
+      <c r="F38" s="22">
+        <f>IFERROR((D38-C38)/C38,0)</f>
+        <v/>
+      </c>
+      <c r="G38" s="23">
+        <f>IFERROR(G33+G35,0)</f>
+        <v/>
+      </c>
+      <c r="H38" s="30">
+        <f>G38-D38</f>
+        <v/>
+      </c>
+      <c r="I38" s="22">
+        <f>IFERROR((G38-D38)/D38,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -5697,6 +6444,38 @@
           <t>Ciclo Operativo - Días Proveedores</t>
         </is>
       </c>
+      <c r="C39" s="23">
+        <f>IFERROR(C38-C37,0)</f>
+        <v/>
+      </c>
+      <c r="D39" s="23">
+        <f>IFERROR(D38-D37,0)</f>
+        <v/>
+      </c>
+      <c r="E39" s="30">
+        <f>D39-C39</f>
+        <v/>
+      </c>
+      <c r="F39" s="22">
+        <f>IFERROR((D39-C39)/C39,0)</f>
+        <v/>
+      </c>
+      <c r="G39" s="23">
+        <f>IFERROR(G38-G37,0)</f>
+        <v/>
+      </c>
+      <c r="H39" s="30">
+        <f>G39-D39</f>
+        <v/>
+      </c>
+      <c r="I39" s="22">
+        <f>IFERROR((G39-D39)/D39,0)</f>
+        <v/>
+      </c>
+      <c r="J39">
+        <f>IF(G39&lt;=30,"🟢 Óptimo",IF(G39&lt;=60,"🟡 Aceptable","🔴 Alto"))</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -5708,6 +6487,34 @@
         <is>
           <t>Días de financiación requerida</t>
         </is>
+      </c>
+      <c r="C40" s="23">
+        <f>C39</f>
+        <v/>
+      </c>
+      <c r="D40" s="23">
+        <f>D39</f>
+        <v/>
+      </c>
+      <c r="E40" s="30">
+        <f>D40-C40</f>
+        <v/>
+      </c>
+      <c r="F40" s="22">
+        <f>IFERROR((D40-C40)/C40,0)</f>
+        <v/>
+      </c>
+      <c r="G40" s="23">
+        <f>G39</f>
+        <v/>
+      </c>
+      <c r="H40" s="30">
+        <f>G40-D40</f>
+        <v/>
+      </c>
+      <c r="I40" s="22">
+        <f>IFERROR((G40-D40)/D40,0)</f>
+        <v/>
       </c>
     </row>
     <row r="42">

--- a/ControllerFinanciero/ControllerFinanciero_v1.0.xlsx
+++ b/ControllerFinanciero/ControllerFinanciero_v1.0.xlsx
@@ -26,9 +26,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="$#,##0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -111,7 +112,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -154,6 +155,18 @@
         <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEB9C"/>
+        <bgColor rgb="00FFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -167,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -206,6 +219,12 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -799,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,6 +827,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="100" customWidth="1" min="1" max="1"/>
+    <col hidden="1" width="13" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -816,33 +836,51 @@
           <t>DIAGNÓSTICO FINANCIERO AUTOMÁTICO</t>
         </is>
       </c>
-    </row>
-    <row r="2"/>
+      <c r="J1">
+        <f>INDICADORES!G7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="J2">
+        <f>INDICADORES!G19</f>
+        <v/>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="18">
-        <f>== DIAGNÓSTICO FINANCIERO DE [NOMBRE EMPRESA] ===</f>
+        <f>CONCATENATE("=== DIAGNÓSTICO FINANCIERO DE ",UPPER(CONFIGURACIÓN!B5)," ===")</f>
+        <v/>
+      </c>
+      <c r="J3">
+        <f>INDICADORES!G25</f>
         <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sector: [SECTOR]</t>
-        </is>
+      <c r="A4">
+        <f>CONCATENATE("Sector: ",CONFIGURACIÓN!B7)</f>
+        <v/>
+      </c>
+      <c r="J4">
+        <f>INDICADORES!G21</f>
+        <v/>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Período analizado: [AÑOS]</t>
-        </is>
+      <c r="A5">
+        <f>CONCATENATE("Período analizado: 2022 - ",CONFIGURACIÓN!B11)</f>
+        <v/>
+      </c>
+      <c r="J5">
+        <f>INDICADORES!G39</f>
+        <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Fecha de elaboración: [FECHA AUTOMÁTICA]</t>
-        </is>
+      <c r="A6">
+        <f>CONCATENATE("Fecha de elaboración: ",TEXT(TODAY(),"dd/mm/yyyy"))</f>
+        <v/>
       </c>
     </row>
     <row r="7"/>
@@ -1665,6 +1703,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
+    <col hidden="1" width="13" customWidth="1" min="11" max="11"/>
+    <col hidden="1" width="13" customWidth="1" min="12" max="12"/>
+    <col hidden="1" width="13" customWidth="1" min="13" max="13"/>
+    <col hidden="1" width="13" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1688,23 +1730,178 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
+    <row r="5">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Año</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Ventas</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Utilidad Neta</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="K6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L6">
+        <f>EERR!B5</f>
+        <v/>
+      </c>
+      <c r="M6">
+        <f>EERR!B22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="K7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L7">
+        <f>EERR!D5</f>
+        <v/>
+      </c>
+      <c r="M7">
+        <f>EERR!D22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="K8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="L8">
+        <f>EERR!G5</f>
+        <v/>
+      </c>
+      <c r="M8">
+        <f>EERR!G22</f>
+        <v/>
+      </c>
+    </row>
     <row r="9"/>
     <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
+    <row r="11">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Margen</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Bruto</t>
+        </is>
+      </c>
+      <c r="L12">
+        <f>INDICADORES!C16</f>
+        <v/>
+      </c>
+      <c r="M12">
+        <f>INDICADORES!D16</f>
+        <v/>
+      </c>
+      <c r="N12">
+        <f>INDICADORES!G16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="L13">
+        <f>INDICADORES!C17</f>
+        <v/>
+      </c>
+      <c r="M13">
+        <f>INDICADORES!D17</f>
+        <v/>
+      </c>
+      <c r="N13">
+        <f>INDICADORES!G17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Operativo</t>
+        </is>
+      </c>
+      <c r="L14">
+        <f>INDICADORES!C18</f>
+        <v/>
+      </c>
+      <c r="M14">
+        <f>INDICADORES!D18</f>
+        <v/>
+      </c>
+      <c r="N14">
+        <f>INDICADORES!G18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Neto</t>
+        </is>
+      </c>
+      <c r="L15">
+        <f>INDICADORES!C19</f>
+        <v/>
+      </c>
+      <c r="M15">
+        <f>INDICADORES!D19</f>
+        <v/>
+      </c>
+      <c r="N15">
+        <f>INDICADORES!G19</f>
+        <v/>
+      </c>
+    </row>
     <row r="18">
       <c r="A18" s="20" t="inlineStr">
         <is>
           <t>Gráfico 2: Comparación de Márgenes (Bruto, EBITDA, Operativo, Neto)</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1712,18 +1909,121 @@
           <t>[Espacio reservado para gráfico - se generará con macro VBA]</t>
         </is>
       </c>
-    </row>
-    <row r="20"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Activos Corrientes</t>
+        </is>
+      </c>
+      <c r="L19">
+        <f>ESF!G14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Activos No Corrientes</t>
+        </is>
+      </c>
+      <c r="L20">
+        <f>ESF!G21</f>
+        <v/>
+      </c>
+    </row>
     <row r="21"/>
     <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
+    <row r="23">
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Pasivos</t>
+        </is>
+      </c>
+      <c r="L24">
+        <f>ESF!G45</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Patrimonio</t>
+        </is>
+      </c>
+      <c r="L25">
+        <f>ESF!G54</f>
+        <v/>
+      </c>
+    </row>
     <row r="26"/>
     <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
+    <row r="28">
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Concepto</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Días</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Días Inventario</t>
+        </is>
+      </c>
+      <c r="L29">
+        <f>INDICADORES!G33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Días Cartera</t>
+        </is>
+      </c>
+      <c r="L30">
+        <f>INDICADORES!G35</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Días Proveedores</t>
+        </is>
+      </c>
+      <c r="L31">
+        <f>INDICADORES!G37</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Ciclo Efectivo</t>
+        </is>
+      </c>
+      <c r="L32">
+        <f>INDICADORES!G39</f>
+        <v/>
+      </c>
+    </row>
     <row r="33">
       <c r="A33" s="20" t="inlineStr">
         <is>
@@ -5617,7 +5917,6 @@
         <v/>
       </c>
     </row>
-    <row r="14"/>
     <row r="15">
       <c r="A15" s="13" t="inlineStr">
         <is>
@@ -5929,7 +6228,6 @@
         <v/>
       </c>
     </row>
-    <row r="23"/>
     <row r="24">
       <c r="A24" s="13" t="inlineStr">
         <is>
@@ -6145,7 +6443,6 @@
         <v/>
       </c>
     </row>
-    <row r="30"/>
     <row r="31">
       <c r="A31" s="13" t="inlineStr">
         <is>
@@ -6591,7 +6888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6708,7 +7005,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12">
+      <c r="B12" s="31">
         <f>IFERROR(SUM(B9:B11),0)</f>
         <v/>
       </c>
@@ -6726,7 +7023,7 @@
           <t>Margen de Contribución Unitario:</t>
         </is>
       </c>
-      <c r="B14">
+      <c r="B14" s="31">
         <f>IFERROR(B5-B6,0)</f>
         <v/>
       </c>
@@ -6770,6 +7067,10 @@
           <t>Ventas Actuales (unidades):</t>
         </is>
       </c>
+      <c r="B18" s="31">
+        <f>EERR!G5</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -6870,10 +7171,26 @@
           <t>Precio Base</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
+      <c r="B27" s="32" t="inlineStr">
+        <is>
+          <t>-15%</t>
+        </is>
+      </c>
+      <c r="C27" s="31">
+        <f>IFERROR(B5*(1+-0.15),0)</f>
+        <v/>
+      </c>
+      <c r="D27" s="23">
+        <f>IFERROR(B12/(C27-B6),0)</f>
+        <v/>
+      </c>
+      <c r="E27" s="31">
+        <f>IFERROR(D27*C27,0)</f>
+        <v/>
+      </c>
+      <c r="F27" s="22">
+        <f>IFERROR((D27-B16)/B16,0)</f>
+        <v/>
       </c>
     </row>
     <row r="28">
@@ -6882,10 +7199,26 @@
           <t>Precio +5%</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>+5%</t>
-        </is>
+      <c r="B28" s="32" t="inlineStr">
+        <is>
+          <t>-10%</t>
+        </is>
+      </c>
+      <c r="C28" s="31">
+        <f>IFERROR(B5*(1+-0.1),0)</f>
+        <v/>
+      </c>
+      <c r="D28" s="23">
+        <f>IFERROR(B12/(C28-B6),0)</f>
+        <v/>
+      </c>
+      <c r="E28" s="31">
+        <f>IFERROR(D28*C28,0)</f>
+        <v/>
+      </c>
+      <c r="F28" s="22">
+        <f>IFERROR((D28-B16)/B16,0)</f>
+        <v/>
       </c>
     </row>
     <row r="29">
@@ -6894,10 +7227,26 @@
           <t>Precio +10%</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>+10%</t>
-        </is>
+      <c r="B29" s="32" t="inlineStr">
+        <is>
+          <t>-5%</t>
+        </is>
+      </c>
+      <c r="C29" s="31">
+        <f>IFERROR(B5*(1+-0.05),0)</f>
+        <v/>
+      </c>
+      <c r="D29" s="23">
+        <f>IFERROR(B12/(C29-B6),0)</f>
+        <v/>
+      </c>
+      <c r="E29" s="31">
+        <f>IFERROR(D29*C29,0)</f>
+        <v/>
+      </c>
+      <c r="F29" s="22">
+        <f>IFERROR((D29-B16)/B16,0)</f>
+        <v/>
       </c>
     </row>
     <row r="30">
@@ -6906,10 +7255,95 @@
           <t>Precio +15%</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>+15%</t>
-        </is>
+      <c r="B30" s="32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C30" s="31">
+        <f>IFERROR(B5*(1+0.0),0)</f>
+        <v/>
+      </c>
+      <c r="D30" s="23">
+        <f>IFERROR(B12/(C30-B6),0)</f>
+        <v/>
+      </c>
+      <c r="E30" s="31">
+        <f>IFERROR(D30*C30,0)</f>
+        <v/>
+      </c>
+      <c r="F30" s="22">
+        <f>IFERROR((D30-B16)/B16,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="32" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="C31" s="31">
+        <f>IFERROR(B5*(1+0.05),0)</f>
+        <v/>
+      </c>
+      <c r="D31" s="23">
+        <f>IFERROR(B12/(C31-B6),0)</f>
+        <v/>
+      </c>
+      <c r="E31" s="31">
+        <f>IFERROR(D31*C31,0)</f>
+        <v/>
+      </c>
+      <c r="F31" s="22">
+        <f>IFERROR((D31-B16)/B16,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="32" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="C32" s="31">
+        <f>IFERROR(B5*(1+0.1),0)</f>
+        <v/>
+      </c>
+      <c r="D32" s="23">
+        <f>IFERROR(B12/(C32-B6),0)</f>
+        <v/>
+      </c>
+      <c r="E32" s="31">
+        <f>IFERROR(D32*C32,0)</f>
+        <v/>
+      </c>
+      <c r="F32" s="22">
+        <f>IFERROR((D32-B16)/B16,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="32" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="C33" s="31">
+        <f>IFERROR(B5*(1+0.15),0)</f>
+        <v/>
+      </c>
+      <c r="D33" s="23">
+        <f>IFERROR(B12/(C33-B6),0)</f>
+        <v/>
+      </c>
+      <c r="E33" s="31">
+        <f>IFERROR(D33*C33,0)</f>
+        <v/>
+      </c>
+      <c r="F33" s="22">
+        <f>IFERROR((D33-B16)/B16,0)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -6930,7 +7364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7155,6 +7589,64 @@
           <t>Utilidad Bruta</t>
         </is>
       </c>
+      <c r="B20" s="23">
+        <f>IFERROR(EERR!G5*(1+$B$5),0)</f>
+        <v/>
+      </c>
+      <c r="C20" s="23">
+        <f>IFERROR(B20*(1+$B$5),0)</f>
+        <v/>
+      </c>
+      <c r="D20" s="23">
+        <f>IFERROR(C20*(1+$B$5),0)</f>
+        <v/>
+      </c>
+      <c r="E20" s="23">
+        <f>IFERROR(D20*(1+$B$5),0)</f>
+        <v/>
+      </c>
+      <c r="F20" s="23">
+        <f>IFERROR(E20*(1+$B$5),0)</f>
+        <v/>
+      </c>
+      <c r="G20" s="23">
+        <f>IFERROR(F20*(1+$B$5),0)</f>
+        <v/>
+      </c>
+      <c r="H20" s="23">
+        <f>IFERROR(G20*(1+$B$5),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="23">
+        <f>IFERROR(B20*(1-$B$6),0)</f>
+        <v/>
+      </c>
+      <c r="C21" s="23">
+        <f>IFERROR(C20*(1-$B$6),0)</f>
+        <v/>
+      </c>
+      <c r="D21" s="23">
+        <f>IFERROR(D20*(1-$B$6),0)</f>
+        <v/>
+      </c>
+      <c r="E21" s="23">
+        <f>IFERROR(E20*(1-$B$6),0)</f>
+        <v/>
+      </c>
+      <c r="F21" s="23">
+        <f>IFERROR(F20*(1-$B$6),0)</f>
+        <v/>
+      </c>
+      <c r="G21" s="23">
+        <f>IFERROR(G20*(1-$B$6),0)</f>
+        <v/>
+      </c>
+      <c r="H21" s="23">
+        <f>IFERROR(H20*(1-$B$6),0)</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7162,6 +7654,34 @@
           <t>(-) Gastos Administrativos</t>
         </is>
       </c>
+      <c r="B22" s="23">
+        <f>IFERROR(B20-B21,0)</f>
+        <v/>
+      </c>
+      <c r="C22" s="23">
+        <f>IFERROR(C20-C21,0)</f>
+        <v/>
+      </c>
+      <c r="D22" s="23">
+        <f>IFERROR(D20-D21,0)</f>
+        <v/>
+      </c>
+      <c r="E22" s="23">
+        <f>IFERROR(E20-E21,0)</f>
+        <v/>
+      </c>
+      <c r="F22" s="23">
+        <f>IFERROR(F20-F21,0)</f>
+        <v/>
+      </c>
+      <c r="G22" s="23">
+        <f>IFERROR(G20-G21,0)</f>
+        <v/>
+      </c>
+      <c r="H22" s="23">
+        <f>IFERROR(H20-H21,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7169,6 +7689,13 @@
           <t>(-) Gastos de Ventas</t>
         </is>
       </c>
+      <c r="B23" s="23" t="n"/>
+      <c r="C23" s="23" t="n"/>
+      <c r="D23" s="23" t="n"/>
+      <c r="E23" s="23" t="n"/>
+      <c r="F23" s="23" t="n"/>
+      <c r="G23" s="23" t="n"/>
+      <c r="H23" s="23" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7176,6 +7703,34 @@
           <t>(-) Depreciación</t>
         </is>
       </c>
+      <c r="B24" s="23">
+        <f>IFERROR(B20*$B$7,0)</f>
+        <v/>
+      </c>
+      <c r="C24" s="23">
+        <f>IFERROR(C20*$B$7,0)</f>
+        <v/>
+      </c>
+      <c r="D24" s="23">
+        <f>IFERROR(D20*$B$7,0)</f>
+        <v/>
+      </c>
+      <c r="E24" s="23">
+        <f>IFERROR(E20*$B$7,0)</f>
+        <v/>
+      </c>
+      <c r="F24" s="23">
+        <f>IFERROR(F20*$B$7,0)</f>
+        <v/>
+      </c>
+      <c r="G24" s="23">
+        <f>IFERROR(G20*$B$7,0)</f>
+        <v/>
+      </c>
+      <c r="H24" s="23">
+        <f>IFERROR(H20*$B$7,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -7183,6 +7738,34 @@
           <t>EBITDA</t>
         </is>
       </c>
+      <c r="B25" s="23">
+        <f>IFERROR(B20*$B$8,0)</f>
+        <v/>
+      </c>
+      <c r="C25" s="23">
+        <f>IFERROR(C20*$B$8,0)</f>
+        <v/>
+      </c>
+      <c r="D25" s="23">
+        <f>IFERROR(D20*$B$8,0)</f>
+        <v/>
+      </c>
+      <c r="E25" s="23">
+        <f>IFERROR(E20*$B$8,0)</f>
+        <v/>
+      </c>
+      <c r="F25" s="23">
+        <f>IFERROR(F20*$B$8,0)</f>
+        <v/>
+      </c>
+      <c r="G25" s="23">
+        <f>IFERROR(G20*$B$8,0)</f>
+        <v/>
+      </c>
+      <c r="H25" s="23">
+        <f>IFERROR(H20*$B$8,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -7190,6 +7773,64 @@
           <t>Utilidad Operativa (EBIT)</t>
         </is>
       </c>
+      <c r="B26" s="23">
+        <f>IFERROR(B20*0.02,0)</f>
+        <v/>
+      </c>
+      <c r="C26" s="23">
+        <f>IFERROR(C20*0.02,0)</f>
+        <v/>
+      </c>
+      <c r="D26" s="23">
+        <f>IFERROR(D20*0.02,0)</f>
+        <v/>
+      </c>
+      <c r="E26" s="23">
+        <f>IFERROR(E20*0.02,0)</f>
+        <v/>
+      </c>
+      <c r="F26" s="23">
+        <f>IFERROR(F20*0.02,0)</f>
+        <v/>
+      </c>
+      <c r="G26" s="23">
+        <f>IFERROR(G20*0.02,0)</f>
+        <v/>
+      </c>
+      <c r="H26" s="23">
+        <f>IFERROR(H20*0.02,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="23">
+        <f>IFERROR(B22-B24-B25,0)</f>
+        <v/>
+      </c>
+      <c r="C27" s="23">
+        <f>IFERROR(C22-C24-C25,0)</f>
+        <v/>
+      </c>
+      <c r="D27" s="23">
+        <f>IFERROR(D22-D24-D25,0)</f>
+        <v/>
+      </c>
+      <c r="E27" s="23">
+        <f>IFERROR(E22-E24-E25,0)</f>
+        <v/>
+      </c>
+      <c r="F27" s="23">
+        <f>IFERROR(F22-F24-F25,0)</f>
+        <v/>
+      </c>
+      <c r="G27" s="23">
+        <f>IFERROR(G22-G24-G25,0)</f>
+        <v/>
+      </c>
+      <c r="H27" s="23">
+        <f>IFERROR(H22-H24-H25,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7197,6 +7838,34 @@
           <t>(-) Gastos Financieros</t>
         </is>
       </c>
+      <c r="B28" s="23">
+        <f>IFERROR(B27-B26,0)</f>
+        <v/>
+      </c>
+      <c r="C28" s="23">
+        <f>IFERROR(C27-C26,0)</f>
+        <v/>
+      </c>
+      <c r="D28" s="23">
+        <f>IFERROR(D27-D26,0)</f>
+        <v/>
+      </c>
+      <c r="E28" s="23">
+        <f>IFERROR(E27-E26,0)</f>
+        <v/>
+      </c>
+      <c r="F28" s="23">
+        <f>IFERROR(F27-F26,0)</f>
+        <v/>
+      </c>
+      <c r="G28" s="23">
+        <f>IFERROR(G27-G26,0)</f>
+        <v/>
+      </c>
+      <c r="H28" s="23">
+        <f>IFERROR(H27-H26,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -7204,6 +7873,13 @@
           <t>Utilidad Antes de Impuestos</t>
         </is>
       </c>
+      <c r="B29" s="23" t="n"/>
+      <c r="C29" s="23" t="n"/>
+      <c r="D29" s="23" t="n"/>
+      <c r="E29" s="23" t="n"/>
+      <c r="F29" s="23" t="n"/>
+      <c r="G29" s="23" t="n"/>
+      <c r="H29" s="23" t="n"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7211,12 +7887,128 @@
           <t>(-) Impuesto de Renta</t>
         </is>
       </c>
+      <c r="B30" s="23">
+        <f>IFERROR(B20*0.02,0)</f>
+        <v/>
+      </c>
+      <c r="C30" s="23">
+        <f>IFERROR(C20*0.02,0)</f>
+        <v/>
+      </c>
+      <c r="D30" s="23">
+        <f>IFERROR(D20*0.02,0)</f>
+        <v/>
+      </c>
+      <c r="E30" s="23">
+        <f>IFERROR(E20*0.02,0)</f>
+        <v/>
+      </c>
+      <c r="F30" s="23">
+        <f>IFERROR(F20*0.02,0)</f>
+        <v/>
+      </c>
+      <c r="G30" s="23">
+        <f>IFERROR(G20*0.02,0)</f>
+        <v/>
+      </c>
+      <c r="H30" s="23">
+        <f>IFERROR(H20*0.02,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
           <t>UTILIDAD NETA</t>
         </is>
+      </c>
+      <c r="B31" s="23">
+        <f>IFERROR(B28-B30,0)</f>
+        <v/>
+      </c>
+      <c r="C31" s="23">
+        <f>IFERROR(C28-C30,0)</f>
+        <v/>
+      </c>
+      <c r="D31" s="23">
+        <f>IFERROR(D28-D30,0)</f>
+        <v/>
+      </c>
+      <c r="E31" s="23">
+        <f>IFERROR(E28-E30,0)</f>
+        <v/>
+      </c>
+      <c r="F31" s="23">
+        <f>IFERROR(F28-F30,0)</f>
+        <v/>
+      </c>
+      <c r="G31" s="23">
+        <f>IFERROR(G28-G30,0)</f>
+        <v/>
+      </c>
+      <c r="H31" s="23">
+        <f>IFERROR(H28-H30,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="23">
+        <f>IFERROR(B31*0.35,0)</f>
+        <v/>
+      </c>
+      <c r="C32" s="23">
+        <f>IFERROR(C31*0.35,0)</f>
+        <v/>
+      </c>
+      <c r="D32" s="23">
+        <f>IFERROR(D31*0.35,0)</f>
+        <v/>
+      </c>
+      <c r="E32" s="23">
+        <f>IFERROR(E31*0.35,0)</f>
+        <v/>
+      </c>
+      <c r="F32" s="23">
+        <f>IFERROR(F31*0.35,0)</f>
+        <v/>
+      </c>
+      <c r="G32" s="23">
+        <f>IFERROR(G31*0.35,0)</f>
+        <v/>
+      </c>
+      <c r="H32" s="23">
+        <f>IFERROR(H31*0.35,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="23">
+        <f>IFERROR(B31-B32,0)</f>
+        <v/>
+      </c>
+      <c r="C33" s="23">
+        <f>IFERROR(C31-C32,0)</f>
+        <v/>
+      </c>
+      <c r="D33" s="23">
+        <f>IFERROR(D31-D32,0)</f>
+        <v/>
+      </c>
+      <c r="E33" s="23">
+        <f>IFERROR(E31-E32,0)</f>
+        <v/>
+      </c>
+      <c r="F33" s="23">
+        <f>IFERROR(F31-F32,0)</f>
+        <v/>
+      </c>
+      <c r="G33" s="23">
+        <f>IFERROR(G31-G32,0)</f>
+        <v/>
+      </c>
+      <c r="H33" s="23">
+        <f>IFERROR(H31-H32,0)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -7235,7 +8027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7287,6 +8079,10 @@
           <t xml:space="preserve">  Beta del Sector:</t>
         </is>
       </c>
+      <c r="B6" s="22">
+        <f>CONFIGURACIÓN!B16</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7318,6 +8114,15 @@
           <t xml:space="preserve">  Ke = Rf + β × (Rm - Rf) + Riesgo País</t>
         </is>
       </c>
+      <c r="B9" s="22" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="22">
+        <f>IFERROR(B6+B7*B8+B9,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -7349,7 +8154,15 @@
           <t>Kd después de impuestos:</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr"/>
+      <c r="B13" s="33" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="22">
+        <f>IFERROR(B12*(1-B13),0)</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -7377,10 +8190,9 @@
           <t xml:space="preserve">  Deuda (D):</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
+      <c r="B17" s="31">
+        <f>ESF!G54</f>
+        <v/>
       </c>
     </row>
     <row r="18">
@@ -7389,10 +8201,9 @@
           <t xml:space="preserve">  Total (E+D):</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
+      <c r="B18" s="31">
+        <f>ESF!G45</f>
+        <v/>
       </c>
     </row>
     <row r="19">
@@ -7401,10 +8212,9 @@
           <t xml:space="preserve">  % Patrimonio:</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+      <c r="B19" s="31">
+        <f>IFERROR(B17+B18,0)</f>
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -7413,10 +8223,15 @@
           <t xml:space="preserve">  % Deuda:</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+      <c r="B20" s="22">
+        <f>IFERROR(B17/B19,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="22">
+        <f>IFERROR(B18/B19,0)</f>
+        <v/>
       </c>
     </row>
     <row r="22">
@@ -7438,6 +8253,12 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="B24" s="34">
+        <f>IFERROR(B10*B20+B14*B21,0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
@@ -7472,21 +8293,154 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="31">
+        <f>IFERROR(PROYECCIONES!B28*0.65,0)</f>
+        <v/>
+      </c>
+      <c r="C31" s="31">
+        <f>IFERROR(PROYECCIONES!C28*0.65,0)</f>
+        <v/>
+      </c>
+      <c r="D31" s="31">
+        <f>IFERROR(PROYECCIONES!D28*0.65,0)</f>
+        <v/>
+      </c>
+      <c r="E31" s="31">
+        <f>IFERROR(PROYECCIONES!E28*0.65,0)</f>
+        <v/>
+      </c>
+      <c r="F31" s="31">
+        <f>IFERROR(PROYECCIONES!F28*0.65,0)</f>
+        <v/>
+      </c>
+      <c r="G31" s="31">
+        <f>IFERROR(PROYECCIONES!G28*0.65,0)</f>
+        <v/>
+      </c>
+      <c r="H31" s="31">
+        <f>IFERROR(PROYECCIONES!H28*0.65,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="35">
+        <f>IFERROR(1/((1+$B$24)^1),0)</f>
+        <v/>
+      </c>
+      <c r="C32" s="35">
+        <f>IFERROR(1/((1+$B$24)^2),0)</f>
+        <v/>
+      </c>
+      <c r="D32" s="35">
+        <f>IFERROR(1/((1+$B$24)^3),0)</f>
+        <v/>
+      </c>
+      <c r="E32" s="35">
+        <f>IFERROR(1/((1+$B$24)^4),0)</f>
+        <v/>
+      </c>
+      <c r="F32" s="35">
+        <f>IFERROR(1/((1+$B$24)^5),0)</f>
+        <v/>
+      </c>
+      <c r="G32" s="35">
+        <f>IFERROR(1/((1+$B$24)^6),0)</f>
+        <v/>
+      </c>
+      <c r="H32" s="35">
+        <f>IFERROR(1/((1+$B$24)^7),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="31">
+        <f>IFERROR(B31*B32,0)</f>
+        <v/>
+      </c>
+      <c r="C33" s="31">
+        <f>IFERROR(C31*C32,0)</f>
+        <v/>
+      </c>
+      <c r="D33" s="31">
+        <f>IFERROR(D31*D32,0)</f>
+        <v/>
+      </c>
+      <c r="E33" s="31">
+        <f>IFERROR(E31*E32,0)</f>
+        <v/>
+      </c>
+      <c r="F33" s="31">
+        <f>IFERROR(F31*F32,0)</f>
+        <v/>
+      </c>
+      <c r="G33" s="31">
+        <f>IFERROR(G31*G32,0)</f>
+        <v/>
+      </c>
+      <c r="H33" s="31">
+        <f>IFERROR(H31*H32,0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
           <t>Valor Terminal (Perpetuidad):</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Tasa de crecimiento perpetuo:</t>
-        </is>
+      <c r="B35" s="36">
+        <f>IFERROR(SUM(B33:H33),0)</f>
+        <v/>
       </c>
       <c r="C35" s="5" t="inlineStr">
         <is>
           <t>2.5%</t>
         </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="36">
+        <f>IFERROR(H31*(1+C38)/(B24-C38),0)</f>
+        <v/>
+      </c>
+      <c r="C38" s="22" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="31">
+        <f>IFERROR(B38*H32,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="37">
+        <f>IFERROR(B35+B39,0)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -7505,7 +8459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8036,6 +8990,139 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>Margen Bruto</t>
+        </is>
+      </c>
+      <c r="B17" s="22">
+        <f>INDICADORES!G16</f>
+        <v/>
+      </c>
+      <c r="D17" s="22">
+        <f>IFERROR(B17-C17,0)</f>
+        <v/>
+      </c>
+      <c r="E17">
+        <f>IF(D17&gt;0,"🟢 Por encima",IF(D17=0,"🟡 Igual","🔴 Por debajo"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>Margen EBITDA</t>
+        </is>
+      </c>
+      <c r="B18" s="22">
+        <f>INDICADORES!G17</f>
+        <v/>
+      </c>
+      <c r="D18" s="22">
+        <f>IFERROR(B18-C18,0)</f>
+        <v/>
+      </c>
+      <c r="E18">
+        <f>IF(D18&gt;0,"🟢 Por encima",IF(D18=0,"🟡 Igual","🔴 Por debajo"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Margen Neto</t>
+        </is>
+      </c>
+      <c r="B19" s="22">
+        <f>INDICADORES!G19</f>
+        <v/>
+      </c>
+      <c r="D19" s="22">
+        <f>IFERROR(B19-C19,0)</f>
+        <v/>
+      </c>
+      <c r="E19">
+        <f>IF(D19&gt;0,"🟢 Por encima",IF(D19=0,"🟡 Igual","🔴 Por debajo"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="B20" s="22">
+        <f>INDICADORES!G21</f>
+        <v/>
+      </c>
+      <c r="D20" s="22">
+        <f>IFERROR(B20-C20,0)</f>
+        <v/>
+      </c>
+      <c r="E20">
+        <f>IF(D20&gt;0,"🟢 Por encima",IF(D20=0,"🟡 Igual","🔴 Por debajo"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="B21" s="22">
+        <f>INDICADORES!G20</f>
+        <v/>
+      </c>
+      <c r="D21" s="22">
+        <f>IFERROR(B21-C21,0)</f>
+        <v/>
+      </c>
+      <c r="E21">
+        <f>IF(D21&gt;0,"🟢 Por encima",IF(D21=0,"🟡 Igual","🔴 Por debajo"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Razón Corriente</t>
+        </is>
+      </c>
+      <c r="B22" s="22">
+        <f>INDICADORES!G7</f>
+        <v/>
+      </c>
+      <c r="D22" s="22">
+        <f>IFERROR(B22-C22,0)</f>
+        <v/>
+      </c>
+      <c r="E22">
+        <f>IF(D22&gt;0,"🟢 Por encima",IF(D22=0,"🟡 Igual","🔴 Por debajo"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Nivel Endeudamiento</t>
+        </is>
+      </c>
+      <c r="B23" s="22">
+        <f>INDICADORES!G25</f>
+        <v/>
+      </c>
+      <c r="D23" s="22">
+        <f>IFERROR(B23-C23,0)</f>
+        <v/>
+      </c>
+      <c r="E23">
+        <f>IF(D23&gt;0,"🟢 Por encima",IF(D23=0,"🟡 Igual","🔴 Por debajo"))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A14:F14"/>

--- a/ControllerFinanciero/ControllerFinanciero_v1.0.xlsx
+++ b/ControllerFinanciero/ControllerFinanciero_v1.0.xlsx
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -225,6 +225,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="14" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -5917,6 +5918,7 @@
         <v/>
       </c>
     </row>
+    <row r="14"/>
     <row r="15">
       <c r="A15" s="13" t="inlineStr">
         <is>
@@ -5935,11 +5937,11 @@
           <t>Utilidad Bruta / Ventas</t>
         </is>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="30">
         <f>IFERROR(EERR!B7/EERR!B5,0)</f>
         <v/>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="30">
         <f>IFERROR(EERR!D7/EERR!D5,0)</f>
         <v/>
       </c>
@@ -5951,7 +5953,7 @@
         <f>IFERROR((D16-C16)/C16,0)</f>
         <v/>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="30">
         <f>IFERROR(EERR!G7/EERR!G5,0)</f>
         <v/>
       </c>
@@ -5979,11 +5981,11 @@
           <t>EBITDA / Ventas</t>
         </is>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="30">
         <f>IFERROR(EERR!B13/EERR!B5,0)</f>
         <v/>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="30">
         <f>IFERROR(EERR!D13/EERR!D5,0)</f>
         <v/>
       </c>
@@ -5995,7 +5997,7 @@
         <f>IFERROR((D17-C17)/C17,0)</f>
         <v/>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="30">
         <f>IFERROR(EERR!G13/EERR!G5,0)</f>
         <v/>
       </c>
@@ -6023,11 +6025,11 @@
           <t>Utilidad Operativa / Ventas</t>
         </is>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="30">
         <f>IFERROR(EERR!B14/EERR!B5,0)</f>
         <v/>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="30">
         <f>IFERROR(EERR!D14/EERR!D5,0)</f>
         <v/>
       </c>
@@ -6039,7 +6041,7 @@
         <f>IFERROR((D18-C18)/C18,0)</f>
         <v/>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="30">
         <f>IFERROR(EERR!G14/EERR!G5,0)</f>
         <v/>
       </c>
@@ -6067,11 +6069,11 @@
           <t>Utilidad Neta / Ventas</t>
         </is>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="30">
         <f>IFERROR(EERR!B22/EERR!B5,0)</f>
         <v/>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="30">
         <f>IFERROR(EERR!D22/EERR!D5,0)</f>
         <v/>
       </c>
@@ -6083,7 +6085,7 @@
         <f>IFERROR((D19-C19)/C19,0)</f>
         <v/>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="30">
         <f>IFERROR(EERR!G22/EERR!G5,0)</f>
         <v/>
       </c>
@@ -6111,11 +6113,11 @@
           <t>Utilidad Neta / Activos Totales</t>
         </is>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="30">
         <f>IFERROR(EERR!B22/ESF!B23,0)</f>
         <v/>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="30">
         <f>IFERROR(EERR!D22/ESF!D23,0)</f>
         <v/>
       </c>
@@ -6127,7 +6129,7 @@
         <f>IFERROR((D20-C20)/C20,0)</f>
         <v/>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="30">
         <f>IFERROR(EERR!G22/ESF!G23,0)</f>
         <v/>
       </c>
@@ -6155,11 +6157,11 @@
           <t>Utilidad Neta / Patrimonio</t>
         </is>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="30">
         <f>IFERROR(EERR!B22/ESF!B54,0)</f>
         <v/>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="30">
         <f>IFERROR(EERR!D22/ESF!D54,0)</f>
         <v/>
       </c>
@@ -6171,7 +6173,7 @@
         <f>IFERROR((D21-C21)/C21,0)</f>
         <v/>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="30">
         <f>IFERROR(EERR!G22/ESF!G54,0)</f>
         <v/>
       </c>
@@ -6199,11 +6201,11 @@
           <t>Impuestos / UAI</t>
         </is>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="30">
         <f>IFERROR(EERR!B21/EERR!B19,0)</f>
         <v/>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="30">
         <f>IFERROR(EERR!D21/EERR!D19,0)</f>
         <v/>
       </c>
@@ -6215,7 +6217,7 @@
         <f>IFERROR((D22-C22)/C22,0)</f>
         <v/>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="30">
         <f>IFERROR(EERR!G21/EERR!G19,0)</f>
         <v/>
       </c>
@@ -6228,6 +6230,7 @@
         <v/>
       </c>
     </row>
+    <row r="23"/>
     <row r="24">
       <c r="A24" s="13" t="inlineStr">
         <is>
@@ -6246,11 +6249,11 @@
           <t>Pasivo Total / Activo Total</t>
         </is>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="30">
         <f>IFERROR(ESF!B45/ESF!B23,0)</f>
         <v/>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="30">
         <f>IFERROR(ESF!D45/ESF!D23,0)</f>
         <v/>
       </c>
@@ -6262,7 +6265,7 @@
         <f>IFERROR((D25-C25)/C25,0)</f>
         <v/>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="30">
         <f>IFERROR(ESF!G45/ESF!G23,0)</f>
         <v/>
       </c>
@@ -6290,11 +6293,11 @@
           <t>Pasivo Corriente / Pasivo Total</t>
         </is>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="30">
         <f>IFERROR(ESF!B37/ESF!B45,0)</f>
         <v/>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="30">
         <f>IFERROR(ESF!D37/ESF!D45,0)</f>
         <v/>
       </c>
@@ -6306,7 +6309,7 @@
         <f>IFERROR((D26-C26)/C26,0)</f>
         <v/>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="30">
         <f>IFERROR(ESF!G37/ESF!G45,0)</f>
         <v/>
       </c>
@@ -6330,11 +6333,11 @@
           <t>(Oblig. Financ. CP + LP) / Activos</t>
         </is>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="30">
         <f>IFERROR((ESF!B29+ESF!B40)/ESF!B23,0)</f>
         <v/>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="30">
         <f>IFERROR((ESF!D29+ESF!D40)/ESF!D23,0)</f>
         <v/>
       </c>
@@ -6346,7 +6349,7 @@
         <f>IFERROR((D27-C27)/C27,0)</f>
         <v/>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="30">
         <f>IFERROR((ESF!G29+ESF!G40)/ESF!G23,0)</f>
         <v/>
       </c>
@@ -6443,6 +6446,7 @@
         <v/>
       </c>
     </row>
+    <row r="30"/>
     <row r="31">
       <c r="A31" s="13" t="inlineStr">
         <is>
@@ -6501,11 +6505,11 @@
           <t>365 / Rotación de Inventarios</t>
         </is>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="30">
         <f>IFERROR(365/C32,0)</f>
         <v/>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="30">
         <f>IFERROR(365/D32,0)</f>
         <v/>
       </c>
@@ -6517,7 +6521,7 @@
         <f>IFERROR((D33-C33)/C33,0)</f>
         <v/>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="30">
         <f>IFERROR(365/G32,0)</f>
         <v/>
       </c>
@@ -6581,11 +6585,11 @@
           <t>365 / Rotación de Cartera</t>
         </is>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="30">
         <f>IFERROR(365/C34,0)</f>
         <v/>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="30">
         <f>IFERROR(365/D34,0)</f>
         <v/>
       </c>
@@ -6597,7 +6601,7 @@
         <f>IFERROR((D35-C35)/C35,0)</f>
         <v/>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="30">
         <f>IFERROR(365/G34,0)</f>
         <v/>
       </c>
@@ -6661,11 +6665,11 @@
           <t>365 / Rotación de Proveedores</t>
         </is>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="30">
         <f>IFERROR(365/C36,0)</f>
         <v/>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="30">
         <f>IFERROR(365/D36,0)</f>
         <v/>
       </c>
@@ -6677,7 +6681,7 @@
         <f>IFERROR((D37-C37)/C37,0)</f>
         <v/>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="30">
         <f>IFERROR(365/G36,0)</f>
         <v/>
       </c>
@@ -6701,11 +6705,11 @@
           <t>Días Inventario + Días Cartera</t>
         </is>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="30">
         <f>IFERROR(C33+C35,0)</f>
         <v/>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="30">
         <f>IFERROR(D33+D35,0)</f>
         <v/>
       </c>
@@ -6717,7 +6721,7 @@
         <f>IFERROR((D38-C38)/C38,0)</f>
         <v/>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="30">
         <f>IFERROR(G33+G35,0)</f>
         <v/>
       </c>
@@ -6741,11 +6745,11 @@
           <t>Ciclo Operativo - Días Proveedores</t>
         </is>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="30">
         <f>IFERROR(C38-C37,0)</f>
         <v/>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="30">
         <f>IFERROR(D38-D37,0)</f>
         <v/>
       </c>
@@ -6757,7 +6761,7 @@
         <f>IFERROR((D39-C39)/C39,0)</f>
         <v/>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="30">
         <f>IFERROR(G38-G37,0)</f>
         <v/>
       </c>
@@ -6785,11 +6789,11 @@
           <t>Días de financiación requerida</t>
         </is>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="30">
         <f>C39</f>
         <v/>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="30">
         <f>D39</f>
         <v/>
       </c>
@@ -6801,7 +6805,7 @@
         <f>IFERROR((D40-C40)/C40,0)</f>
         <v/>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="30">
         <f>G39</f>
         <v/>
       </c>
@@ -7418,10 +7422,8 @@
           <t>Margen Bruto Esperado:</t>
         </is>
       </c>
-      <c r="B5" s="16" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+      <c r="B5" s="38" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -7430,10 +7432,9 @@
           <t>Gastos Administrativos (% de Ventas):</t>
         </is>
       </c>
-      <c r="B6" s="16" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+      <c r="B6" s="38">
+        <f>INDICADORES!G16</f>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -7442,10 +7443,8 @@
           <t>Gastos de Ventas (% de Ventas):</t>
         </is>
       </c>
-      <c r="B7" s="16" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+      <c r="B7" s="38" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
@@ -7454,10 +7453,8 @@
           <t>Tasa de Interés de Deuda:</t>
         </is>
       </c>
-      <c r="B8" s="16" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+      <c r="B8" s="38" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
@@ -8090,10 +8087,8 @@
           <t xml:space="preserve">  Prima de Riesgo de Mercado:</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+      <c r="B7" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="8">
@@ -8102,10 +8097,8 @@
           <t xml:space="preserve">  Prima de Riesgo País Colombia:</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+      <c r="B8" s="22" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -8142,10 +8135,8 @@
           <t>Tasa de Impuesto:</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>35%</t>
-        </is>
+      <c r="B12" s="33" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="13">

--- a/ControllerFinanciero/ControllerFinanciero_v1.0.xlsx
+++ b/ControllerFinanciero/ControllerFinanciero_v1.0.xlsx
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -226,6 +226,7 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="14" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -5918,7 +5919,6 @@
         <v/>
       </c>
     </row>
-    <row r="14"/>
     <row r="15">
       <c r="A15" s="13" t="inlineStr">
         <is>
@@ -6230,7 +6230,6 @@
         <v/>
       </c>
     </row>
-    <row r="23"/>
     <row r="24">
       <c r="A24" s="13" t="inlineStr">
         <is>
@@ -6446,7 +6445,6 @@
         <v/>
       </c>
     </row>
-    <row r="30"/>
     <row r="31">
       <c r="A31" s="13" t="inlineStr">
         <is>
@@ -7114,7 +7112,7 @@
       </c>
       <c r="C23" s="15" t="inlineStr">
         <is>
-          <t>Nuevo Precio</t>
+          <t>Nuevo Precic PE Unidades</t>
         </is>
       </c>
       <c r="D23" s="15" t="inlineStr">
@@ -7144,6 +7142,22 @@
           <t>-15%</t>
         </is>
       </c>
+      <c r="C24" s="31">
+        <f>IFERROR($B$4*(1+B24),0)</f>
+        <v/>
+      </c>
+      <c r="D24" s="23">
+        <f>IFERROR($B$11/(C24-$B$5),0)</f>
+        <v/>
+      </c>
+      <c r="E24" s="31">
+        <f>IFERROR(D24*C24,0)</f>
+        <v/>
+      </c>
+      <c r="F24" s="22">
+        <f>IFERROR((D24-$B$16)/$B$16,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7156,6 +7170,22 @@
           <t>-10%</t>
         </is>
       </c>
+      <c r="C25" s="31">
+        <f>IFERROR($B$4*(1+B25),0)</f>
+        <v/>
+      </c>
+      <c r="D25" s="23">
+        <f>IFERROR($B$11/(C25-$B$5),0)</f>
+        <v/>
+      </c>
+      <c r="E25" s="31">
+        <f>IFERROR(D25*C25,0)</f>
+        <v/>
+      </c>
+      <c r="F25" s="22">
+        <f>IFERROR((D25-$B$16)/$B$16,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7168,6 +7198,22 @@
           <t>-5%</t>
         </is>
       </c>
+      <c r="C26" s="31">
+        <f>IFERROR($B$4*(1+B26),0)</f>
+        <v/>
+      </c>
+      <c r="D26" s="23">
+        <f>IFERROR($B$11/(C26-$B$5),0)</f>
+        <v/>
+      </c>
+      <c r="E26" s="31">
+        <f>IFERROR(D26*C26,0)</f>
+        <v/>
+      </c>
+      <c r="F26" s="22">
+        <f>IFERROR((D26-$B$16)/$B$16,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7181,11 +7227,11 @@
         </is>
       </c>
       <c r="C27" s="31">
-        <f>IFERROR(B5*(1+-0.15),0)</f>
+        <f>IFERROR($B$4*(1+B27),0)</f>
         <v/>
       </c>
       <c r="D27" s="23">
-        <f>IFERROR(B12/(C27-B6),0)</f>
+        <f>IFERROR($B$11/(C27-$B$5),0)</f>
         <v/>
       </c>
       <c r="E27" s="31">
@@ -7193,7 +7239,7 @@
         <v/>
       </c>
       <c r="F27" s="22">
-        <f>IFERROR((D27-B16)/B16,0)</f>
+        <f>IFERROR((D27-$B$16)/$B$16,0)</f>
         <v/>
       </c>
     </row>
@@ -7209,11 +7255,11 @@
         </is>
       </c>
       <c r="C28" s="31">
-        <f>IFERROR(B5*(1+-0.1),0)</f>
+        <f>IFERROR($B$4*(1+B28),0)</f>
         <v/>
       </c>
       <c r="D28" s="23">
-        <f>IFERROR(B12/(C28-B6),0)</f>
+        <f>IFERROR($B$11/(C28-$B$5),0)</f>
         <v/>
       </c>
       <c r="E28" s="31">
@@ -7221,7 +7267,7 @@
         <v/>
       </c>
       <c r="F28" s="22">
-        <f>IFERROR((D28-B16)/B16,0)</f>
+        <f>IFERROR((D28-$B$16)/$B$16,0)</f>
         <v/>
       </c>
     </row>
@@ -7237,11 +7283,11 @@
         </is>
       </c>
       <c r="C29" s="31">
-        <f>IFERROR(B5*(1+-0.05),0)</f>
+        <f>IFERROR($B$4*(1+B29),0)</f>
         <v/>
       </c>
       <c r="D29" s="23">
-        <f>IFERROR(B12/(C29-B6),0)</f>
+        <f>IFERROR($B$11/(C29-$B$5),0)</f>
         <v/>
       </c>
       <c r="E29" s="31">
@@ -7249,7 +7295,7 @@
         <v/>
       </c>
       <c r="F29" s="22">
-        <f>IFERROR((D29-B16)/B16,0)</f>
+        <f>IFERROR((D29-$B$16)/$B$16,0)</f>
         <v/>
       </c>
     </row>
@@ -7265,11 +7311,11 @@
         </is>
       </c>
       <c r="C30" s="31">
-        <f>IFERROR(B5*(1+0.0),0)</f>
+        <f>IFERROR($B$4*(1+B30),0)</f>
         <v/>
       </c>
       <c r="D30" s="23">
-        <f>IFERROR(B12/(C30-B6),0)</f>
+        <f>IFERROR($B$11/(C30-$B$5),0)</f>
         <v/>
       </c>
       <c r="E30" s="31">
@@ -7277,7 +7323,7 @@
         <v/>
       </c>
       <c r="F30" s="22">
-        <f>IFERROR((D30-B16)/B16,0)</f>
+        <f>IFERROR((D30-$B$16)/$B$16,0)</f>
         <v/>
       </c>
     </row>
@@ -7572,6 +7618,34 @@
           <t>Ingresos (Ventas)</t>
         </is>
       </c>
+      <c r="B18" s="23">
+        <f>IFERROR(EERR!G5*(1+$B$5),0)</f>
+        <v/>
+      </c>
+      <c r="C18" s="23">
+        <f>IFERROR(B18*(1+$B$5),0)</f>
+        <v/>
+      </c>
+      <c r="D18" s="23">
+        <f>IFERROR(C18*(1+$B$5),0)</f>
+        <v/>
+      </c>
+      <c r="E18" s="23">
+        <f>IFERROR(D18*(1+$B$5),0)</f>
+        <v/>
+      </c>
+      <c r="F18" s="23">
+        <f>IFERROR(E18*(1+$B$5),0)</f>
+        <v/>
+      </c>
+      <c r="G18" s="23">
+        <f>IFERROR(F18*(1+$B$5),0)</f>
+        <v/>
+      </c>
+      <c r="H18" s="23">
+        <f>IFERROR(G18*(1+$B$5),0)</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7579,6 +7653,34 @@
           <t>(-) Costo de Ventas</t>
         </is>
       </c>
+      <c r="B19" s="23">
+        <f>IFERROR(B18*(1-$B$6),0)</f>
+        <v/>
+      </c>
+      <c r="C19" s="23">
+        <f>IFERROR(C18*(1-$B$6),0)</f>
+        <v/>
+      </c>
+      <c r="D19" s="23">
+        <f>IFERROR(D18*(1-$B$6),0)</f>
+        <v/>
+      </c>
+      <c r="E19" s="23">
+        <f>IFERROR(E18*(1-$B$6),0)</f>
+        <v/>
+      </c>
+      <c r="F19" s="23">
+        <f>IFERROR(F18*(1-$B$6),0)</f>
+        <v/>
+      </c>
+      <c r="G19" s="23">
+        <f>IFERROR(G18*(1-$B$6),0)</f>
+        <v/>
+      </c>
+      <c r="H19" s="23">
+        <f>IFERROR(H18*(1-$B$6),0)</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -7587,31 +7689,31 @@
         </is>
       </c>
       <c r="B20" s="23">
-        <f>IFERROR(EERR!G5*(1+$B$5),0)</f>
+        <f>IFERROR(B18-B19,0)</f>
         <v/>
       </c>
       <c r="C20" s="23">
-        <f>IFERROR(B20*(1+$B$5),0)</f>
+        <f>IFERROR(C18-C19,0)</f>
         <v/>
       </c>
       <c r="D20" s="23">
-        <f>IFERROR(C20*(1+$B$5),0)</f>
+        <f>IFERROR(D18-D19,0)</f>
         <v/>
       </c>
       <c r="E20" s="23">
-        <f>IFERROR(D20*(1+$B$5),0)</f>
+        <f>IFERROR(E18-E19,0)</f>
         <v/>
       </c>
       <c r="F20" s="23">
-        <f>IFERROR(E20*(1+$B$5),0)</f>
+        <f>IFERROR(F18-F19,0)</f>
         <v/>
       </c>
       <c r="G20" s="23">
-        <f>IFERROR(F20*(1+$B$5),0)</f>
+        <f>IFERROR(G18-G19,0)</f>
         <v/>
       </c>
       <c r="H20" s="23">
-        <f>IFERROR(G20*(1+$B$5),0)</f>
+        <f>IFERROR(H18-H19,0)</f>
         <v/>
       </c>
     </row>
@@ -7652,31 +7754,31 @@
         </is>
       </c>
       <c r="B22" s="23">
-        <f>IFERROR(B20-B21,0)</f>
+        <f>IFERROR(B18*$B$7,0)</f>
         <v/>
       </c>
       <c r="C22" s="23">
-        <f>IFERROR(C20-C21,0)</f>
+        <f>IFERROR(C18*$B$7,0)</f>
         <v/>
       </c>
       <c r="D22" s="23">
-        <f>IFERROR(D20-D21,0)</f>
+        <f>IFERROR(D18*$B$7,0)</f>
         <v/>
       </c>
       <c r="E22" s="23">
-        <f>IFERROR(E20-E21,0)</f>
+        <f>IFERROR(E18*$B$7,0)</f>
         <v/>
       </c>
       <c r="F22" s="23">
-        <f>IFERROR(F20-F21,0)</f>
+        <f>IFERROR(F18*$B$7,0)</f>
         <v/>
       </c>
       <c r="G22" s="23">
-        <f>IFERROR(G20-G21,0)</f>
+        <f>IFERROR(G18*$B$7,0)</f>
         <v/>
       </c>
       <c r="H22" s="23">
-        <f>IFERROR(H20-H21,0)</f>
+        <f>IFERROR(H18*$B$7,0)</f>
         <v/>
       </c>
     </row>
@@ -7686,13 +7788,34 @@
           <t>(-) Gastos de Ventas</t>
         </is>
       </c>
-      <c r="B23" s="23" t="n"/>
-      <c r="C23" s="23" t="n"/>
-      <c r="D23" s="23" t="n"/>
-      <c r="E23" s="23" t="n"/>
-      <c r="F23" s="23" t="n"/>
-      <c r="G23" s="23" t="n"/>
-      <c r="H23" s="23" t="n"/>
+      <c r="B23" s="23">
+        <f>IFERROR(B18*$B$8,0)</f>
+        <v/>
+      </c>
+      <c r="C23" s="23">
+        <f>IFERROR(C18*$B$8,0)</f>
+        <v/>
+      </c>
+      <c r="D23" s="23">
+        <f>IFERROR(D18*$B$8,0)</f>
+        <v/>
+      </c>
+      <c r="E23" s="23">
+        <f>IFERROR(E18*$B$8,0)</f>
+        <v/>
+      </c>
+      <c r="F23" s="23">
+        <f>IFERROR(F18*$B$8,0)</f>
+        <v/>
+      </c>
+      <c r="G23" s="23">
+        <f>IFERROR(G18*$B$8,0)</f>
+        <v/>
+      </c>
+      <c r="H23" s="23">
+        <f>IFERROR(H18*$B$8,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7701,31 +7824,31 @@
         </is>
       </c>
       <c r="B24" s="23">
-        <f>IFERROR(B20*$B$7,0)</f>
+        <f>IFERROR(B18*0.02,0)</f>
         <v/>
       </c>
       <c r="C24" s="23">
-        <f>IFERROR(C20*$B$7,0)</f>
+        <f>IFERROR(C18*0.02,0)</f>
         <v/>
       </c>
       <c r="D24" s="23">
-        <f>IFERROR(D20*$B$7,0)</f>
+        <f>IFERROR(D18*0.02,0)</f>
         <v/>
       </c>
       <c r="E24" s="23">
-        <f>IFERROR(E20*$B$7,0)</f>
+        <f>IFERROR(E18*0.02,0)</f>
         <v/>
       </c>
       <c r="F24" s="23">
-        <f>IFERROR(F20*$B$7,0)</f>
+        <f>IFERROR(F18*0.02,0)</f>
         <v/>
       </c>
       <c r="G24" s="23">
-        <f>IFERROR(G20*$B$7,0)</f>
+        <f>IFERROR(G18*0.02,0)</f>
         <v/>
       </c>
       <c r="H24" s="23">
-        <f>IFERROR(H20*$B$7,0)</f>
+        <f>IFERROR(H18*0.02,0)</f>
         <v/>
       </c>
     </row>
@@ -7736,31 +7859,31 @@
         </is>
       </c>
       <c r="B25" s="23">
-        <f>IFERROR(B20*$B$8,0)</f>
+        <f>IFERROR(B20-B22-B23,0)</f>
         <v/>
       </c>
       <c r="C25" s="23">
-        <f>IFERROR(C20*$B$8,0)</f>
+        <f>IFERROR(C20-C22-C23,0)</f>
         <v/>
       </c>
       <c r="D25" s="23">
-        <f>IFERROR(D20*$B$8,0)</f>
+        <f>IFERROR(D20-D22-D23,0)</f>
         <v/>
       </c>
       <c r="E25" s="23">
-        <f>IFERROR(E20*$B$8,0)</f>
+        <f>IFERROR(E20-E22-E23,0)</f>
         <v/>
       </c>
       <c r="F25" s="23">
-        <f>IFERROR(F20*$B$8,0)</f>
+        <f>IFERROR(F20-F22-F23,0)</f>
         <v/>
       </c>
       <c r="G25" s="23">
-        <f>IFERROR(G20*$B$8,0)</f>
+        <f>IFERROR(G20-G22-G23,0)</f>
         <v/>
       </c>
       <c r="H25" s="23">
-        <f>IFERROR(H20*$B$8,0)</f>
+        <f>IFERROR(H20-H22-H23,0)</f>
         <v/>
       </c>
     </row>
@@ -7771,31 +7894,31 @@
         </is>
       </c>
       <c r="B26" s="23">
-        <f>IFERROR(B20*0.02,0)</f>
+        <f>IFERROR(B25-B24,0)</f>
         <v/>
       </c>
       <c r="C26" s="23">
-        <f>IFERROR(C20*0.02,0)</f>
+        <f>IFERROR(C25-C24,0)</f>
         <v/>
       </c>
       <c r="D26" s="23">
-        <f>IFERROR(D20*0.02,0)</f>
+        <f>IFERROR(D25-D24,0)</f>
         <v/>
       </c>
       <c r="E26" s="23">
-        <f>IFERROR(E20*0.02,0)</f>
+        <f>IFERROR(E25-E24,0)</f>
         <v/>
       </c>
       <c r="F26" s="23">
-        <f>IFERROR(F20*0.02,0)</f>
+        <f>IFERROR(F25-F24,0)</f>
         <v/>
       </c>
       <c r="G26" s="23">
-        <f>IFERROR(G20*0.02,0)</f>
+        <f>IFERROR(G25-G24,0)</f>
         <v/>
       </c>
       <c r="H26" s="23">
-        <f>IFERROR(H20*0.02,0)</f>
+        <f>IFERROR(H25-H24,0)</f>
         <v/>
       </c>
     </row>
@@ -7836,31 +7959,31 @@
         </is>
       </c>
       <c r="B28" s="23">
-        <f>IFERROR(B27-B26,0)</f>
+        <f>IFERROR(B18*0.02,0)</f>
         <v/>
       </c>
       <c r="C28" s="23">
-        <f>IFERROR(C27-C26,0)</f>
+        <f>IFERROR(C18*0.02,0)</f>
         <v/>
       </c>
       <c r="D28" s="23">
-        <f>IFERROR(D27-D26,0)</f>
+        <f>IFERROR(D18*0.02,0)</f>
         <v/>
       </c>
       <c r="E28" s="23">
-        <f>IFERROR(E27-E26,0)</f>
+        <f>IFERROR(E18*0.02,0)</f>
         <v/>
       </c>
       <c r="F28" s="23">
-        <f>IFERROR(F27-F26,0)</f>
+        <f>IFERROR(F18*0.02,0)</f>
         <v/>
       </c>
       <c r="G28" s="23">
-        <f>IFERROR(G27-G26,0)</f>
+        <f>IFERROR(G18*0.02,0)</f>
         <v/>
       </c>
       <c r="H28" s="23">
-        <f>IFERROR(H27-H26,0)</f>
+        <f>IFERROR(H18*0.02,0)</f>
         <v/>
       </c>
     </row>
@@ -7870,13 +7993,34 @@
           <t>Utilidad Antes de Impuestos</t>
         </is>
       </c>
-      <c r="B29" s="23" t="n"/>
-      <c r="C29" s="23" t="n"/>
-      <c r="D29" s="23" t="n"/>
-      <c r="E29" s="23" t="n"/>
-      <c r="F29" s="23" t="n"/>
-      <c r="G29" s="23" t="n"/>
-      <c r="H29" s="23" t="n"/>
+      <c r="B29" s="23">
+        <f>IFERROR(B26-B28,0)</f>
+        <v/>
+      </c>
+      <c r="C29" s="23">
+        <f>IFERROR(C26-C28,0)</f>
+        <v/>
+      </c>
+      <c r="D29" s="23">
+        <f>IFERROR(D26-D28,0)</f>
+        <v/>
+      </c>
+      <c r="E29" s="23">
+        <f>IFERROR(E26-E28,0)</f>
+        <v/>
+      </c>
+      <c r="F29" s="23">
+        <f>IFERROR(F26-F28,0)</f>
+        <v/>
+      </c>
+      <c r="G29" s="23">
+        <f>IFERROR(G26-G28,0)</f>
+        <v/>
+      </c>
+      <c r="H29" s="23">
+        <f>IFERROR(H26-H28,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7885,31 +8029,31 @@
         </is>
       </c>
       <c r="B30" s="23">
-        <f>IFERROR(B20*0.02,0)</f>
+        <f>IFERROR(B29*0.35,0)</f>
         <v/>
       </c>
       <c r="C30" s="23">
-        <f>IFERROR(C20*0.02,0)</f>
+        <f>IFERROR(C29*0.35,0)</f>
         <v/>
       </c>
       <c r="D30" s="23">
-        <f>IFERROR(D20*0.02,0)</f>
+        <f>IFERROR(D29*0.35,0)</f>
         <v/>
       </c>
       <c r="E30" s="23">
-        <f>IFERROR(E20*0.02,0)</f>
+        <f>IFERROR(E29*0.35,0)</f>
         <v/>
       </c>
       <c r="F30" s="23">
-        <f>IFERROR(F20*0.02,0)</f>
+        <f>IFERROR(F29*0.35,0)</f>
         <v/>
       </c>
       <c r="G30" s="23">
-        <f>IFERROR(G20*0.02,0)</f>
+        <f>IFERROR(G29*0.35,0)</f>
         <v/>
       </c>
       <c r="H30" s="23">
-        <f>IFERROR(H20*0.02,0)</f>
+        <f>IFERROR(H29*0.35,0)</f>
         <v/>
       </c>
     </row>
@@ -7920,31 +8064,31 @@
         </is>
       </c>
       <c r="B31" s="23">
-        <f>IFERROR(B28-B30,0)</f>
+        <f>IFERROR(B29-B30,0)</f>
         <v/>
       </c>
       <c r="C31" s="23">
-        <f>IFERROR(C28-C30,0)</f>
+        <f>IFERROR(C29-C30,0)</f>
         <v/>
       </c>
       <c r="D31" s="23">
-        <f>IFERROR(D28-D30,0)</f>
+        <f>IFERROR(D29-D30,0)</f>
         <v/>
       </c>
       <c r="E31" s="23">
-        <f>IFERROR(E28-E30,0)</f>
+        <f>IFERROR(E29-E30,0)</f>
         <v/>
       </c>
       <c r="F31" s="23">
-        <f>IFERROR(F28-F30,0)</f>
+        <f>IFERROR(F29-F30,0)</f>
         <v/>
       </c>
       <c r="G31" s="23">
-        <f>IFERROR(G28-G30,0)</f>
+        <f>IFERROR(G29-G30,0)</f>
         <v/>
       </c>
       <c r="H31" s="23">
-        <f>IFERROR(H28-H30,0)</f>
+        <f>IFERROR(H29-H30,0)</f>
         <v/>
       </c>
     </row>
@@ -8284,56 +8428,116 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="31">
+        <f>IFERROR(PROYECCIONES!B26*0.65,0)</f>
+        <v/>
+      </c>
+      <c r="C29" s="31">
+        <f>IFERROR(PROYECCIONES!C26*0.65,0)</f>
+        <v/>
+      </c>
+      <c r="D29" s="31">
+        <f>IFERROR(PROYECCIONES!D26*0.65,0)</f>
+        <v/>
+      </c>
+      <c r="E29" s="31">
+        <f>IFERROR(PROYECCIONES!E26*0.65,0)</f>
+        <v/>
+      </c>
+      <c r="F29" s="31">
+        <f>IFERROR(PROYECCIONES!F26*0.65,0)</f>
+        <v/>
+      </c>
+      <c r="G29" s="31">
+        <f>IFERROR(PROYECCIONES!G26*0.65,0)</f>
+        <v/>
+      </c>
+      <c r="H29" s="31">
+        <f>IFERROR(PROYECCIONES!H26*0.65,0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="30">
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
-      </c>
-      <c r="G30" t="n">
-        <v>6</v>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
+      <c r="B30" s="35">
+        <f>IFERROR(1/((1+$B$24)^1),0)</f>
+        <v/>
+      </c>
+      <c r="C30" s="35">
+        <f>IFERROR(1/((1+$B$24)^2),0)</f>
+        <v/>
+      </c>
+      <c r="D30" s="35">
+        <f>IFERROR(1/((1+$B$24)^3),0)</f>
+        <v/>
+      </c>
+      <c r="E30" s="35">
+        <f>IFERROR(1/((1+$B$24)^4),0)</f>
+        <v/>
+      </c>
+      <c r="F30" s="35">
+        <f>IFERROR(1/((1+$B$24)^5),0)</f>
+        <v/>
+      </c>
+      <c r="G30" s="35">
+        <f>IFERROR(1/((1+$B$24)^6),0)</f>
+        <v/>
+      </c>
+      <c r="H30" s="35">
+        <f>IFERROR(1/((1+$B$24)^7),0)</f>
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="31">
-        <f>IFERROR(PROYECCIONES!B28*0.65,0)</f>
+        <f>IFERROR(B29*B30,0)</f>
         <v/>
       </c>
       <c r="C31" s="31">
-        <f>IFERROR(PROYECCIONES!C28*0.65,0)</f>
+        <f>IFERROR(C29*C30,0)</f>
         <v/>
       </c>
       <c r="D31" s="31">
-        <f>IFERROR(PROYECCIONES!D28*0.65,0)</f>
+        <f>IFERROR(D29*D30,0)</f>
         <v/>
       </c>
       <c r="E31" s="31">
-        <f>IFERROR(PROYECCIONES!E28*0.65,0)</f>
+        <f>IFERROR(E29*E30,0)</f>
         <v/>
       </c>
       <c r="F31" s="31">
-        <f>IFERROR(PROYECCIONES!F28*0.65,0)</f>
+        <f>IFERROR(F29*F30,0)</f>
         <v/>
       </c>
       <c r="G31" s="31">
-        <f>IFERROR(PROYECCIONES!G28*0.65,0)</f>
+        <f>IFERROR(G29*G30,0)</f>
         <v/>
       </c>
       <c r="H31" s="31">
-        <f>IFERROR(PROYECCIONES!H28*0.65,0)</f>
+        <f>IFERROR(H29*H30,0)</f>
         <v/>
       </c>
     </row>
@@ -8368,8 +8572,13 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="31">
-        <f>IFERROR(B31*B32,0)</f>
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>SUMA FCF Descontados:</t>
+        </is>
+      </c>
+      <c r="B33" s="36">
+        <f>IFERROR(SUM(B31:H31),0)</f>
         <v/>
       </c>
       <c r="C33" s="31">
@@ -8398,7 +8607,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>Valor Terminal (Perpetuidad):</t>
         </is>
@@ -8413,9 +8622,35 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tasa de crecimiento perpetuo:</t>
+        </is>
+      </c>
+      <c r="B36" s="22" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>VT =</t>
+        </is>
+      </c>
+      <c r="B37" s="31">
+        <f>IFERROR(H29*(1+B36)/(B24-B36),0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>VT Descontado =</t>
+        </is>
+      </c>
       <c r="B38" s="36">
-        <f>IFERROR(H31*(1+C38)/(B24-C38),0)</f>
+        <f>IFERROR(B37*H30,0)</f>
         <v/>
       </c>
       <c r="C38" s="22" t="n">
@@ -8425,6 +8660,17 @@
     <row r="39">
       <c r="B39" s="31">
         <f>IFERROR(B38*H32,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="39" t="inlineStr">
+        <is>
+          <t>VALOR TOTAL DE LA EMPRESA:</t>
+        </is>
+      </c>
+      <c r="B40" s="37">
+        <f>IFERROR(B33+B38,0)</f>
         <v/>
       </c>
     </row>
